--- a/data/flux/2017-suspended.xlsx
+++ b/data/flux/2017-suspended.xlsx
@@ -107,6 +107,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -192,11 +193,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,10 +221,10 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -253,408 +254,408 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.6877892857</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="3" t="n">
         <v>4.5147375</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="3" t="n">
         <v>-24.6425</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>3.7722</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="3" t="n">
         <v>6.56412886</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.2496178571</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="3" t="n">
         <v>1.926541667</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="3" t="n">
         <v>-25.1372</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="3" t="n">
         <v>11.0676</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="3" t="n">
         <v>7.717964126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.1675880399</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="3" t="n">
         <v>1.245333333</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="3" t="n">
         <v>-24.6598</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="3" t="n">
         <v>9.8853</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="3" t="n">
         <v>7.430920096</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.1859928571</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="3" t="n">
         <v>1.556829167</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="3" t="n">
         <v>-25.1547</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="3" t="n">
         <v>8.370370726</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.245225</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="3" t="n">
         <v>1.882975</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="3" t="n">
         <v>-24.9989</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>10.3396</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>7.678560506</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.3420607143</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="3" t="n">
         <v>2.403725</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="3" t="n">
         <v>-25.034</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="3" t="n">
         <v>8.6782</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="3" t="n">
         <v>7.027188156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.2412571429</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="3" t="n">
         <v>2.069695833</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="3" t="n">
         <v>-25.4704</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>5.3412</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="3" t="n">
         <v>8.578796088</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.1741321429</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="3" t="n">
         <v>1.606783333</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="3" t="n">
         <v>-25.168</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="3" t="n">
         <v>9.227379316</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.131975</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="3" t="n">
         <v>1.430929167</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="3" t="n">
         <v>-25.3878</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="3" t="n">
         <v>10.84242596</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3" t="n">
         <v>0.1139845293</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="3" t="n">
         <v>1.127046851</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="3" t="n">
         <v>-24.4151</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="3" t="n">
         <v>7.378</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="3" t="n">
         <v>9.887717728</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3" t="n">
         <v>0.09476033835</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="3" t="n">
         <v>0.8992123538</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="3" t="n">
         <v>-24.1404</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="3" t="n">
         <v>9.1095</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="3" t="n">
         <v>9.489332452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.08180941097</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="3" t="n">
         <v>0.762721169</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="3" t="n">
         <v>-23.9833</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="3" t="n">
         <v>9.323147056</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="3" t="n">
         <v>0.05539700997</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="3" t="n">
         <v>0.5498682171</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="3" t="n">
         <v>-24.9765</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="3" t="n">
         <v>9.925954801</v>
       </c>
     </row>

--- a/data/flux/2017-suspended.xlsx
+++ b/data/flux/2017-suspended.xlsx
@@ -221,10 +221,10 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
